--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/15_Bayburt_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/15_Bayburt_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA191B8-51DD-40B0-8C23-741AB43123F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC469A7-A05F-41B9-BE34-4BEA29E37D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{A13EBD6C-3131-4FB5-A1DC-51F03571A452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{250D3B6A-C76C-432A-8328-E479CCBF7048}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -1084,14 +1084,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{40115CB5-62D7-4D9E-9E40-34F8B7FE3DB2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4F4845BF-6811-4244-BFAC-428AB3CE440C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7EDC406A-C06A-4FF5-AB15-7AC6A2D13D8C}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{03BDD0E3-4B82-4720-BE97-FFEAEE83A7FC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CEAD919A-984F-435E-84D8-2BAA931D3042}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F113AC7F-99B2-428B-A74B-AD57328A1A70}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6D75158D-DD51-4C20-836A-B46769489EEC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{3E62D106-7C55-481C-9388-BAA706DCE19A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{056FC86F-0D80-47D2-A3FE-D0919FAF98F0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{52F80E78-D874-4D7F-91AD-97A4EB9966D0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2C74BEAE-CD13-4360-A753-92CD93CCAF70}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A58CDAB0-B6F8-482D-8E84-9DCC8283A0FD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{19507264-D35C-4662-8131-AD14238B3FA0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C8744AA7-B77D-49A5-982E-9036F88E7B17}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F1E46029-C96D-4D93-8851-A3434A2E4721}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4EF62951-0331-4D04-860A-DF029CACBA09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1461,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8627BD6E-F156-4A0B-A88F-854C29505CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14069327-129F-42B9-ACD5-E4E191B5AD42}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2638,18 +2638,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF42C828-0DA3-4227-A72C-2A9EEA0EBBAA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D31F4990-593E-4C74-8E72-ECBEB96034D6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D884C6C6-8136-4940-8123-F9619FE5F954}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00812945-1D9C-4002-86C9-B7C1A2820BC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4E9D974-DBBC-49DE-943F-7743DD0BAB38}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{54FA5D02-B359-45A5-A8BB-745256073AB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{589F01A8-31B0-4927-B609-AC1E20EFAAFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE737CD2-63D5-4E8A-9573-0766463594C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37815DDA-36C1-4397-9BB7-6E6F0CA64B4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06DF7137-9A9C-4B44-886F-8672B30DA269}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBDC5D52-1324-4B97-88CF-CBC3952DC10E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCF5F663-819F-4270-BF4C-3D22E29C56EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE17CCAB-AFD7-41AE-9FC6-E840DA494CB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DC767BE-B200-4590-A949-305143A4D984}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A10E52E9-107B-4ADA-8332-953ECE66138C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74D251C2-502E-496D-9364-C1172B4B15D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{827B10FB-0210-41F2-AF85-61852DBDFAF3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{104E29A0-53EE-41C8-919B-75426CDE8BE1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAA8F159-9F92-4284-9698-11D657130CA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{001ABE9C-39B8-423C-A2CE-8FB7A47A6CE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{947ECB14-2E6B-4070-BB27-4A730E1C69E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A97B96E6-62F6-4504-831C-0A5AF45D89EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F4A9831-C3CF-43B7-B3A7-2D775B108EC2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{700F20DE-3E22-4B9F-8B5C-63402FC6DAC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2662,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21896075-2B01-481D-AE47-8605C3A072E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EBAF75-3B08-4449-B030-7828F4E8707E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3827,18 +3827,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C72F14F1-C37E-4BFE-8CD7-312E809CC98D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E23C3E26-28F2-4CB9-9F20-FA18B3CCCAFF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F0C5595-8126-43B4-9AA9-1C2D46C8603E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BEA63220-D1A0-4160-8AE1-2479D09E9733}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F70111E5-C30F-49A2-B23A-5F2016D16E5B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6328B520-5387-438A-97A3-69B815076FCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B91C8EE1-5C64-4EBA-8AE7-6A2BB4992972}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E466C40-C86A-42ED-875F-7E68A841A357}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8EA5DD7-EA5C-4525-AD11-CE07FA5A4B5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B366A49D-D473-4002-965B-9187C1E61204}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAB8FF31-32EB-44E0-85F1-3245A6FB2A37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFECDEFA-7673-4BF1-BB4E-537B96F4A3A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAE14524-6C2B-4FCF-9CCC-64C34670E8FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{533EAFF5-3738-43A1-8143-643FBA35AA45}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{893A9C08-D8D8-4C15-891D-AE49CFFE80CE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED662AFE-6547-4C36-94CC-AD335132A2CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43734EC9-71AC-4DEC-BC9A-F890A07A165B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{922179E9-6675-40DD-B844-25DE3A5D4ADA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30B63D4A-F642-4C6F-A201-108155A23DF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52CFD2CD-D7A6-45E9-958E-150468C45198}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{361CDBF2-8DDC-4E58-9995-7AA758FE9D3D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9E87CC9-C76B-4B30-AED7-B6C686484C13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{462D0701-00E0-4B7D-ACA6-40302CA428B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F79DCC03-113D-4C17-8924-4A5EC3D94FC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3851,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC6F5E9-F7C1-4715-90FE-870B79BC3B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4743C1A7-D083-4F9B-9E4D-590228FAD086}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5012,18 +5012,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A5AD32B-2B83-458A-A627-0741D4E90E4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{212996EF-01A9-4C9F-865D-DD09833A8936}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFB0D06F-68A5-44DA-BF79-C49680082EA1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3E059DF-1245-4746-8A34-D6EDEE40EEA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22AD9EF7-B054-4A3D-8C80-6B935C3D0889}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2769D45-A96F-44F0-B549-A6A465888970}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C36A7F7F-1D7C-4F3B-A656-2099682E89BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E46C6EAD-06D8-46C6-A0DB-7592945EFD67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46E66D78-32CC-4BEF-80AB-419E89880B14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58906A4F-5D71-4D33-8842-5E0ABD862CA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8912B9F-5DA5-48E3-BF05-BBFFE2CEA69E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5EA403D-9A0F-4C78-8BB5-199FF673AC5D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{329A0530-3831-44E1-B01B-56DF917B37DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8CF6A46-CFB8-4A93-9D5F-5BBB1F9B8D4B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC0BEE65-4C10-4E7E-9706-CA5C582FF549}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D23898F2-6951-44D1-8393-5CFD2CAD4C46}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D171D67-9BBB-4456-9780-54A612D3C28D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D2C9BFA-F869-4B4C-8602-7692A16EBBDF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A00E93B3-168B-472D-8BE4-AE6769F09B05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C76B17C7-B3B9-4731-990A-DED491BF0322}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C825E87B-EDD2-48BE-9C09-F8C67BEFE017}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AAF06A5C-BD1A-4099-B2D6-84B7AF9FFA7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAB1D327-B8DE-4407-A0C7-FB62ED0C1374}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CCA1749-42C5-4909-A7BF-8FB1F4944204}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5036,7 +5036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0190B-B2D9-4533-BD91-D40DF49BC94F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C8E40-BD6D-42F2-A5E5-38CF6EC451E2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6195,18 +6195,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6FCA58F-97B2-4D24-B7DC-B21057C9718F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD56F1A8-F911-484A-A863-F841CAEFD544}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5AC8F15E-2754-45C0-93AA-F072A0D9AD31}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E86223F3-B976-44ED-93F3-541F08B1C856}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD4C1F8E-1123-4C68-B480-4908C97D7446}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{720A5CF8-3F91-42B0-B125-06EBB1002564}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F64BFDC-E9F8-42B0-A974-9E96F27EAEE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DA21D47-C7BC-4165-9174-3D5E0FEBDE21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6366454-F27A-46A8-920D-3342D48D05AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC2ED154-E757-4816-8022-42CD4F5A762A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F8F43D4-4130-4913-AEE1-FA84C106A49B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC44C613-F916-447B-B564-8699BAECD258}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5C9B6C2-D5C7-434A-B00B-5125182250D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2FB0ECD-268C-4874-AD1D-B37591CBE445}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C37C2F46-F846-4A03-B28E-91FE5BABEBFD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AC0548B-EA33-4EED-A3CB-99C1C8B5D893}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6206AE14-4A2A-47D4-A8DC-FCA57EF14A40}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E42BD345-E5A2-4BB9-9621-7CFA51FB58E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05D212D7-0E2C-4BF7-AD56-064112D595B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A22380F4-1F7E-464B-995C-700B993B049A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62C91EC6-2B95-43D6-B20F-DA11289C3DAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E630B48-54D0-463E-A34A-CEF85615269D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2699A1D4-F9D4-40F9-B0A2-2D5ED81E49F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D8C4EA3-AEAA-421F-9500-A75D00781372}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6219,7 +6219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA02450-C8C3-494B-9959-D5D8F44E06B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880FC64-468E-4E96-91BC-6F33867706D1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7398,18 +7398,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D123ABDC-7890-4288-9061-49254A154E58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{277170F9-C4C7-4F66-A3F1-2251292606DA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7547F996-73BD-481A-92E4-DB4A56428A05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{01563D66-AAEA-4D15-96AE-B6F6483D90B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E2EF104-C131-4764-9331-BBD83B5DA3ED}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0CE8A83B-5D74-467A-AB73-65D5C711DA6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80D5F4AD-D6D4-45F0-9B98-799CB070F324}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{464324F3-E6EF-4DEA-BDF2-CA042CFF7AA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB666DE1-4F32-4FE3-BA8A-EC256EA96E83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F82C58D0-42AD-4CAC-ABB1-C7A4BE59441D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2C57287-F081-4179-9438-BB21CBD29A89}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAEC7886-8D23-4C7E-9106-CC2316838D8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37CCFAC6-B229-4F27-AE30-3C1C25BD11C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA0674D3-FD90-49C6-B825-61D9476534EB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{686CC95A-5B6F-48BE-A117-D5AC47C1FA83}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1EE8E12-40D7-4291-B4CD-93A73B4A16AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8B1546F-F3B6-4B91-9E2D-F115FFBB99FC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B0A675A-1FBD-4624-83B5-22AA2B91D53A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9F851FC-24D0-4734-B881-C93B56C1E703}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F0ED50A-B233-49FC-A3D5-09ACD19D8F13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C1406AB-BDC2-4552-8AF8-7BE2A2162592}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96A52823-93C5-4691-AAF6-6B7194E79FC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55A1FD4B-B371-4844-8248-A4B12EE3ECBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71F46650-B7A7-4C24-9400-45887D7EF3E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7422,7 +7422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C76BA8-CFE3-4A94-85DE-FBB2D4BA1A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A0557F-0376-446E-8A8A-5E61A01960A4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8601,18 +8601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{681F1295-F48D-45CA-9C47-F28E3CE00E27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4F30F47-0B16-4443-BCB2-F8A4A7FE9A3E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DB75A78-329D-46E2-B206-1611E62D654E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF74DDBB-4634-4E1B-9FB8-787ED201D19C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ABB97C9-8E8E-41E5-9E99-8020BA8224FD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2DF4FE5E-CDD6-4E44-8E83-B506C4D1B107}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE8047F0-BEB3-492A-A168-3AFA279AEA0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C65E0E6-5969-4A82-BC7B-124CF15361B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BD35AA1-10D8-4668-8844-99AE4FEC6563}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B7E57C3-499C-4248-A996-58752A5740FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E0BF828-533D-429D-B5C5-BB2E42D86AA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9781A284-5CAA-432F-BB24-9DA2DD353044}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{695D9ACA-0D54-4A4A-97F6-E373FF748261}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E40C741F-4C4F-4C0C-8751-F650AA72F0F0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77B67769-EAB9-4021-8706-49CBBC45E157}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4053F008-086B-4237-8463-CD74FCCEF567}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F3D4E6B-449D-4A9A-809E-A026B873396A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6DE4EC2D-B3DC-451A-8549-45CAFF579F66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC6FEF34-A0B7-4BEA-8CD2-CF9F63E0E5A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E10BFF4D-490D-41F6-8D14-6B1F4509FC1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4A25B66-104F-4F1C-969C-143095458609}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03B05CE7-A6C2-4480-A3A8-81CFFA8FFD0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{841C0B0D-0FA9-4BFA-BE1F-ECB01A04529B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0B6B8BA-FC83-4CFC-912F-D1F049AD2AFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8625,7 +8625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F053755-C782-425D-9E8C-252BCB53D122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D483291A-DDDF-4ABA-B6F9-2B938E38D359}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9796,18 +9796,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF7326B1-93AB-470C-8027-1922FD348C16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD9388FF-247A-43E8-A090-57EE2EC89726}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70D2549D-CEA0-4543-B26A-4DE99276BFBF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{250C5F2B-F885-4C31-B914-C92A58C2CFA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C769AC12-B376-41D7-9EEB-8EDB454421E6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6BD17DA0-F132-4882-A10D-347CD4DF1A60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{912A71A6-C02B-4D25-B795-7B95F501C08A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1D64B16-281E-4C81-B89B-EECB6B7E092D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A33BEE3D-6F33-4D4B-8024-03DC5A6746C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48BA9EED-9684-4501-8E99-CF288431763D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D95C431E-D889-42A4-9057-F7057AD5FAD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58ED993D-6323-4A80-8CC1-37F46240F148}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D7F3ED6-549C-4F53-B618-DC790F150842}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C083D0D3-735F-4AFD-8604-BF6435C3A526}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26961649-0F52-4C4D-957B-8EDF9BB90423}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{81A60DA1-BDC2-42EE-992C-1B7771F5D403}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52B2A3D8-CEC2-44A0-A192-D6A9E9A5317E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0160CB53-624B-423C-B12C-0EE35DB22785}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9A95366-3CFB-41D5-A4E4-E0120F703D92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FF05457-EB26-45D3-9A48-444B5CD484C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30B3FEEA-8D0A-4FA1-92C0-B2BCAF06980D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78A74F6A-B72D-41BC-BA7E-51C9126CBEE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04E50F55-6611-49FE-92DA-97DD8B7BF425}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04DC3D62-F427-4C01-B910-637A8F00B82D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9820,7 +9820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF11544-3E2C-42DA-8656-B6F15FFF969A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43674FB4-9B00-40A0-AFAF-0C1825D18FAB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10991,18 +10991,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65DE5941-2598-4869-915C-ED8460C2EF95}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9CB0CA3-C6C0-41A2-89B0-2A289C6FAFA4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1E7AFA6-830D-4749-AC0B-5F1AA1A81284}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{069EA24F-650E-4D55-8C9C-62A733808DCF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D13D732-9DB7-4E53-900D-FC0AAA9CDD2F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D40BF54B-F9D5-4EC9-83CA-25477AB6D917}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE0A3CD9-EB94-4E9F-8D24-AFAB56F863C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{869A0399-3BAC-42D0-83BD-2F7B60BE0BAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D0AF0BB-DC4D-4D50-A2F0-37F9B126EB8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC9E3719-BA8B-482D-8B37-4E608F77BE09}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{592E84D3-8060-48B4-9EB2-2F2518EDD901}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5508EF30-301E-4CEE-88F0-0A72C761F6FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71B9CAB7-20A7-4F9C-B30E-0FD016AB2B0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68E347A0-AE1E-4FBB-8D22-BC39F5B2E775}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0ABE2FFF-1372-4AEF-B7B5-B18B79151A9E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1D434891-C49D-4BB8-B39B-9584D8614668}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51E4F258-DA3D-48A7-899E-170554FC7DEB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5836FCCA-5C4C-4548-8F2B-29EEEE363FC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D9197C3-40FB-402E-A1CB-6F9F32F0B386}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{744B472E-2139-4F31-B080-5A84592625CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14BEE72F-42B1-4E17-B432-26EFE4FE7FD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F8FB6C1-09F9-4F9D-8640-D7A91125B94B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D21A1094-7B1E-4F30-9B64-F2406A49B286}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B406DA70-8AD8-4C1E-AEF4-A0978B0CE878}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11015,7 +11015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623755F4-1485-4389-917B-0D4AC5357F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC061E3B-53E0-4D66-98DB-31E2FC0A0921}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12286,18 +12286,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEB5D2D8-5853-4EC9-8CBE-1193439036A5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB9D86D2-B30F-4758-AB9E-B96E071F5680}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0240844C-94A8-4AE5-8E28-40A212E64C93}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC9B791E-C96D-4ECE-AAAB-3B72FE64507F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3C4F46D-AC5F-4680-8161-8BD34505C033}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B12076BB-3DEA-4975-BDDB-5F6FF0B20009}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14C0CCA4-8C85-4852-94E0-6153FDD2D66E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8E8BFE4-38B4-4D50-9544-C29462924891}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC177C98-AAA9-465A-9E4E-E6F98840B260}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B10D376-053B-4DAB-B729-C75E137F19B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA173BF7-F90B-4E66-A245-AED9EEED574C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42ED55D4-F05F-4A0B-BC5C-24AE2D470DC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F041301-1244-4E38-9271-7CFC2923E18B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A1DB313-6BC6-4A9E-8C12-516C861DB753}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E575B250-E627-4CB6-B8E1-8906168F56D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{40FE1373-270A-423A-887E-E6A80AE1D168}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63106D15-1C0A-40FB-98E4-32BF6FE088A5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58F33875-6CE9-4454-ADDC-F3FFA9C53BC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB2C535E-D0C7-4514-9E6E-D356BA95AABA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4772B284-2184-4225-A176-1B5BABEDB3DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39C7B360-1B5D-4A43-A92E-3A48E4AD6EB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80CD21E6-DBF2-4912-9EA8-6B79871D02D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C563388-75B6-474F-8652-68DA45613AAD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0EAE8DC-91F7-4600-B73A-C6D8DCCB08D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12310,7 +12310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DF578A-CCB4-4EF9-A70F-34A6DB617BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF785640-78D2-47DA-9374-13EE0DE0CA03}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13477,18 +13477,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14C0D7ED-13F3-47D7-B403-7B7C1877406E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA10BAE2-ADF3-4ED5-921D-8F5387A37553}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CB07A08-BDD9-4209-A872-5461F19DB88C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89626E0C-D985-4BB4-81B3-E1E79DEE9CAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D10ED34E-3957-4DC8-A665-DD85B151DE4D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5D62202-E608-444C-B682-AE1857059E2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{081C725D-1163-4560-B48C-3F97CAF49946}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F032FCC1-6E83-448A-91F9-6DE2BDD873D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7689036-5A13-46AA-8D31-C464EA5FD1C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D251CFC-7DF9-42D4-9B41-A6AEB4BE3381}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D24C01C0-E4B4-4F42-BADC-1898CA7F4849}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68A6D854-EF77-48A0-96DD-11410ABDAE94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B89204C4-7799-45F6-8C41-D01A5FDAC779}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B351910-B0D9-4AB7-930F-E847E9F6675C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9BD9AC0-E0F1-40FC-BBA2-D38291820ECE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BD04907-770D-4E70-8CF4-C4A0AF2894F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CAF2FE10-1F41-4C46-AA60-A71B619C66CA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E78E0325-642C-46E9-8B6F-7881BE0003DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E084F4C-FB45-47DF-8650-AD3BFC89E09F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B04BDB3E-4141-4F5D-A94B-D70DB09EFA44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CE14175-ED82-4C1F-9199-092AE7712F7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40FD8C83-8C49-4F8B-87AE-9F7DCA0AE0C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB4889BB-4ACD-4E83-8978-E3759BD8D34D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{751E0306-7ACC-4379-84DD-09F43CEDAAA0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13501,7 +13501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8492B2E4-F58F-4801-850A-23DCBAB822B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B076EF51-41E9-44E6-AFB9-683A2ABB53AB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14668,18 +14668,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E2B7525-3972-45DA-8765-B89DE13F135B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CB7353F-5769-41EF-A673-5F796232471D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F7F6889-EDF0-4DC0-BD2E-A12D090276C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5FEEF525-FAC3-4A82-9D5A-3CB477BC86A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80397642-9E4D-4F5E-A7F3-C081411E414F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F43FBD9C-9074-4255-8BF7-DD391392CDE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A5EFB6F-CC17-49A4-87B6-8C86416171BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12569EBC-F655-4439-AA87-785707568E26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D57A08E2-A4CB-4BBB-84F9-90099BDE2AAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91E23F73-95BA-4F2F-8DA0-2C16FD7C0431}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18A0C93F-793E-4542-ABA4-C91B5AE79456}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E419A25-8C15-49DB-A720-D3BFE2042F4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8409BAE-5A7C-4F00-AA84-7732E8D4B989}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2623E63-E471-4866-B142-91F91427F05D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82188030-AAAF-49B4-BE19-AEFCD9BBB16E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72F916E9-6A98-44F5-B088-BF42E108BB9D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD9D4E01-B2DD-4879-B52C-29F9F33D8CB5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8039385-D4C7-41C3-8FFA-19282FBAC906}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC7B0D10-E7C3-4C35-B43A-CD31962C8E7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34D99218-A4E7-4DA3-93A7-C3C21F6D4AC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D3FD770-C0BA-4C28-AE8B-227DBB43C076}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4174571B-9DB0-4662-A32C-96E82C8B791F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4697767B-343C-4D2F-B3AB-C0DB9A415885}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F023DE2-CCB6-4485-969A-CEC6AACB5B68}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14692,7 +14692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F66E1A-80B1-4E61-B1F6-4127225C80D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2CE2E8-B7FF-4D64-9923-EEA4EF71D46B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15859,18 +15859,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B409EC3E-15BB-4B73-B3A9-6C91A2E8E1DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F43DBA7-FDBF-47A5-B6B3-77D83EF1234D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DB8EB8D7-1A4A-48E9-9D44-52494F6A4D99}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3BF60E06-6F95-484B-9F2E-4954B170CE67}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB11B48B-2C95-41C9-820A-0B899025882E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44AD06C2-7F24-4B2B-87E9-8D20C68F2C8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{831A0A17-5C40-415C-B642-C55209433936}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C5AABEE-3033-4FF0-8CB3-34CF23E52474}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95407B52-B27D-4D8D-BD46-C67962603603}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E639AAE8-FE27-48FA-A819-C49B77D9CBF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8083D99-E3E8-4D89-A82F-5240CC0EB669}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5C01D5F-6CD7-4883-A39E-2916E7082DD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90D6F273-4C59-4278-B5F0-E21AE9EC096C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6334A23-031D-4DA2-85E4-502C8E0A00FB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25266BFA-841A-4413-858F-25BE0DDA5658}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53EA75BB-7F46-4696-BD72-3B3926025BA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE030027-299C-475A-856C-67B480DD9C0E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09418F0D-FEC9-417F-B70D-E5BD056F61DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED4A85B4-EAE8-4741-A155-5E8C7E47A242}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAA6C155-B992-4E3D-A426-FB24DCFF5C24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71DC46AB-8006-47F4-B5FA-2FF116C918B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B7C74F4-E575-4250-A739-5F72B7256FD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C3E0028-B8AA-4570-8FE2-74C32AAB3DC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66064E48-00E7-4B79-AC54-549CB9270F95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
